--- a/Stock Price - HPG - train.xlsx
+++ b/Stock Price - HPG - train.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL24H.VN\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\RProjects\Viet_Nam_Steel_stock_analysis-Time-Series-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F286A24-11E3-421C-B4C5-5F202AE0EB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012A6FC4-8296-47A3-8D2F-6919C8141E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19965" yWindow="2295" windowWidth="18945" windowHeight="13335" xr2:uid="{B7CB06FB-D36C-4374-805D-F0CBD28C73EE}"/>
+    <workbookView xWindow="10830" yWindow="4515" windowWidth="21330" windowHeight="17085" xr2:uid="{B7CB06FB-D36C-4374-805D-F0CBD28C73EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>&lt;Close&gt;</t>
+    <t>&lt;DTYYYYMMDD&gt;</t>
   </si>
   <si>
-    <t>&lt;DTYYYYMMDD&gt;</t>
+    <t>&lt;Close&gt;</t>
   </si>
 </sst>
 </file>
@@ -396,2009 +385,2009 @@
   <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>18</v>
+        <v>23.537099999999999</v>
       </c>
       <c r="B2">
-        <v>20221230</v>
+        <v>20210104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>18</v>
+        <v>23.565000000000001</v>
       </c>
       <c r="B3">
-        <v>20221229</v>
+        <v>20210105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18.2</v>
+        <v>23.8154</v>
       </c>
       <c r="B4">
-        <v>20221228</v>
+        <v>20210106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>18.25</v>
+        <v>23.8154</v>
       </c>
       <c r="B5">
-        <v>20221227</v>
+        <v>20210107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>17.100000000000001</v>
+        <v>23.787500000000001</v>
       </c>
       <c r="B6">
-        <v>20221226</v>
+        <v>20210108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>18.350000000000001</v>
+        <v>23.954499999999999</v>
       </c>
       <c r="B7">
-        <v>20221223</v>
+        <v>20210111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>18.899999999999999</v>
+        <v>24.983899999999998</v>
       </c>
       <c r="B8">
-        <v>20221222</v>
+        <v>20210112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18.899999999999999</v>
+        <v>24.872599999999998</v>
       </c>
       <c r="B9">
-        <v>20221221</v>
+        <v>20210113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>24.733499999999999</v>
       </c>
       <c r="B10">
-        <v>20221220</v>
+        <v>20210114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>24.761299999999999</v>
       </c>
       <c r="B11">
-        <v>20221219</v>
+        <v>20210115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20.399999999999999</v>
+        <v>24.8169</v>
       </c>
       <c r="B12">
-        <v>20221216</v>
+        <v>20210118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>19.350000000000001</v>
+        <v>23.147600000000001</v>
       </c>
       <c r="B13">
-        <v>20221215</v>
+        <v>20210119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>19.2</v>
+        <v>23.203299999999999</v>
       </c>
       <c r="B14">
-        <v>20221214</v>
+        <v>20210120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>19</v>
+        <v>24.5944</v>
       </c>
       <c r="B15">
-        <v>20221213</v>
+        <v>20210121</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>18.600000000000001</v>
+        <v>24.2883</v>
       </c>
       <c r="B16">
-        <v>20221212</v>
+        <v>20210122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19.2</v>
+        <v>24.316099999999999</v>
       </c>
       <c r="B17">
-        <v>20221209</v>
+        <v>20210125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18.899999999999999</v>
+        <v>23.537099999999999</v>
       </c>
       <c r="B18">
-        <v>20221208</v>
+        <v>20210126</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18.25</v>
+        <v>22.424299999999999</v>
       </c>
       <c r="B19">
-        <v>20221207</v>
+        <v>20210127</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18.600000000000001</v>
+        <v>20.866299999999999</v>
       </c>
       <c r="B20">
-        <v>20221206</v>
+        <v>20210128</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21.784400000000002</v>
       </c>
       <c r="B21">
-        <v>20221205</v>
+        <v>20210129</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19.45</v>
+        <v>21.339200000000002</v>
       </c>
       <c r="B22">
-        <v>20221202</v>
+        <v>20210201</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18.2</v>
+        <v>22.535599999999999</v>
       </c>
       <c r="B23">
-        <v>20221201</v>
+        <v>20210202</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18.399999999999999</v>
+        <v>23.370200000000001</v>
       </c>
       <c r="B24">
-        <v>20221130</v>
+        <v>20210203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>17.399999999999999</v>
+        <v>23.258900000000001</v>
       </c>
       <c r="B25">
-        <v>20221129</v>
+        <v>20210204</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>16.350000000000001</v>
+        <v>23.648399999999999</v>
       </c>
       <c r="B26">
-        <v>20221128</v>
+        <v>20210205</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>15.3</v>
+        <v>22.758099999999999</v>
       </c>
       <c r="B27">
-        <v>20221125</v>
+        <v>20210208</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>14.35</v>
+        <v>23.258900000000001</v>
       </c>
       <c r="B28">
-        <v>20221124</v>
+        <v>20210209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>13.8</v>
+        <v>24.177</v>
       </c>
       <c r="B29">
-        <v>20221123</v>
+        <v>20210217</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14.8</v>
+        <v>24.3996</v>
       </c>
       <c r="B30">
-        <v>20221122</v>
+        <v>20210218</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>14.95</v>
+        <v>24.177</v>
       </c>
       <c r="B31">
-        <v>20221121</v>
+        <v>20210219</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>15.1</v>
+        <v>24.1492</v>
       </c>
       <c r="B32">
-        <v>20221118</v>
+        <v>20210222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>14.25</v>
+        <v>24.093599999999999</v>
       </c>
       <c r="B33">
-        <v>20221117</v>
+        <v>20210223</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13.35</v>
+        <v>24.2605</v>
       </c>
       <c r="B34">
-        <v>20221116</v>
+        <v>20210224</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>12.5</v>
+        <v>24.566500000000001</v>
       </c>
       <c r="B35">
-        <v>20221115</v>
+        <v>20210225</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>12.2</v>
+        <v>25.3734</v>
       </c>
       <c r="B36">
-        <v>20221114</v>
+        <v>20210226</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>12.3</v>
+        <v>25.7072</v>
       </c>
       <c r="B37">
-        <v>20221111</v>
+        <v>20210301</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>12.1</v>
+        <v>25.985399999999998</v>
       </c>
       <c r="B38">
-        <v>20221110</v>
+        <v>20210302</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>26.0411</v>
       </c>
       <c r="B39">
-        <v>20221109</v>
+        <v>20210303</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13.15</v>
+        <v>25.540299999999998</v>
       </c>
       <c r="B40">
-        <v>20221108</v>
+        <v>20210304</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13.7</v>
+        <v>25.5959</v>
       </c>
       <c r="B41">
-        <v>20221107</v>
+        <v>20210305</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>14.65</v>
+        <v>25.762899999999998</v>
       </c>
       <c r="B42">
-        <v>20221104</v>
+        <v>20210308</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15.2</v>
+        <v>25.512499999999999</v>
       </c>
       <c r="B43">
-        <v>20221103</v>
+        <v>20210309</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>15.35</v>
+        <v>25.3734</v>
       </c>
       <c r="B44">
-        <v>20221102</v>
+        <v>20210310</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15</v>
+        <v>25.8185</v>
       </c>
       <c r="B45">
-        <v>20221101</v>
+        <v>20210311</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15.65</v>
+        <v>25.846299999999999</v>
       </c>
       <c r="B46">
-        <v>20221031</v>
+        <v>20210312</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>16.8</v>
+        <v>25.874199999999998</v>
       </c>
       <c r="B47">
-        <v>20221028</v>
+        <v>20210315</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>17.399999999999999</v>
+        <v>25.651599999999998</v>
       </c>
       <c r="B48">
-        <v>20221027</v>
+        <v>20210316</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>16.899999999999999</v>
+        <v>25.762899999999998</v>
       </c>
       <c r="B49">
-        <v>20221026</v>
+        <v>20210317</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>17.100000000000001</v>
+        <v>25.9298</v>
       </c>
       <c r="B50">
-        <v>20221025</v>
+        <v>20210318</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>16.399999999999999</v>
+        <v>26.235800000000001</v>
       </c>
       <c r="B51">
-        <v>20221024</v>
+        <v>20210319</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>16.899999999999999</v>
+        <v>26.013300000000001</v>
       </c>
       <c r="B52">
-        <v>20221021</v>
+        <v>20210322</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>18.100000000000001</v>
+        <v>25.9298</v>
       </c>
       <c r="B53">
-        <v>20221020</v>
+        <v>20210323</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>18.399999999999999</v>
+        <v>25.289899999999999</v>
       </c>
       <c r="B54">
-        <v>20221019</v>
+        <v>20210324</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>18.850000000000001</v>
+        <v>25.0395</v>
       </c>
       <c r="B55">
-        <v>20221018</v>
+        <v>20210325</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>19.25</v>
+        <v>25.7072</v>
       </c>
       <c r="B56">
-        <v>20221017</v>
+        <v>20210326</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>19.45</v>
+        <v>25.762899999999998</v>
       </c>
       <c r="B57">
-        <v>20221014</v>
+        <v>20210329</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>19.5</v>
+        <v>25.846299999999999</v>
       </c>
       <c r="B58">
-        <v>20221013</v>
+        <v>20210330</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>18.7</v>
+        <v>26.0411</v>
       </c>
       <c r="B59">
-        <v>20221012</v>
+        <v>20210331</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>17.5</v>
+        <v>26.986999999999998</v>
       </c>
       <c r="B60">
-        <v>20221011</v>
+        <v>20210401</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>18.350000000000001</v>
+        <v>27.293099999999999</v>
       </c>
       <c r="B61">
-        <v>20221010</v>
+        <v>20210402</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>17.600000000000001</v>
+        <v>27.432200000000002</v>
       </c>
       <c r="B62">
-        <v>20221007</v>
+        <v>20210405</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>18</v>
+        <v>27.4878</v>
       </c>
       <c r="B63">
-        <v>20221006</v>
+        <v>20210406</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>19.2</v>
+        <v>27.515599999999999</v>
       </c>
       <c r="B64">
-        <v>20221005</v>
+        <v>20210407</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>18.850000000000001</v>
+        <v>27.46</v>
       </c>
       <c r="B65">
-        <v>20221004</v>
+        <v>20210408</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>19.75</v>
+        <v>27.571300000000001</v>
       </c>
       <c r="B66">
-        <v>20221003</v>
+        <v>20210409</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>21.2</v>
+        <v>28.4894</v>
       </c>
       <c r="B67">
-        <v>20220930</v>
+        <v>20210412</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>21.65</v>
+        <v>27.877300000000002</v>
       </c>
       <c r="B68">
-        <v>20220929</v>
+        <v>20210413</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>21.8</v>
+        <v>29.491</v>
       </c>
       <c r="B69">
-        <v>20220928</v>
+        <v>20210414</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>22.4</v>
+        <v>30.325600000000001</v>
       </c>
       <c r="B70">
-        <v>20220927</v>
+        <v>20210415</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>22.4</v>
+        <v>30.3813</v>
       </c>
       <c r="B71">
-        <v>20220926</v>
+        <v>20210416</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>22.7</v>
+        <v>32.161900000000003</v>
       </c>
       <c r="B72">
-        <v>20220923</v>
+        <v>20210419</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>23</v>
+        <v>31.827999999999999</v>
       </c>
       <c r="B73">
-        <v>20220922</v>
+        <v>20210420</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>22.9</v>
+        <v>30.6038</v>
       </c>
       <c r="B74">
-        <v>20220921</v>
+        <v>20210422</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>23</v>
+        <v>31.3828</v>
       </c>
       <c r="B75">
-        <v>20220920</v>
+        <v>20210423</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>22.65</v>
+        <v>30.659500000000001</v>
       </c>
       <c r="B76">
-        <v>20220919</v>
+        <v>20210426</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>23</v>
+        <v>31.327200000000001</v>
       </c>
       <c r="B77">
-        <v>20220916</v>
+        <v>20210427</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>23.6</v>
+        <v>31.160299999999999</v>
       </c>
       <c r="B78">
-        <v>20220915</v>
+        <v>20210428</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>23.7</v>
+        <v>32.328800000000001</v>
       </c>
       <c r="B79">
-        <v>20220914</v>
+        <v>20210429</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>23.7</v>
+        <v>33.274700000000003</v>
       </c>
       <c r="B80">
-        <v>20220913</v>
+        <v>20210504</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>23.8</v>
+        <v>32.996499999999997</v>
       </c>
       <c r="B81">
-        <v>20220912</v>
+        <v>20210505</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>23.8</v>
+        <v>33.052100000000003</v>
       </c>
       <c r="B82">
-        <v>20220909</v>
+        <v>20210506</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>23.1</v>
+        <v>33.831200000000003</v>
       </c>
       <c r="B83">
-        <v>20220908</v>
+        <v>20210507</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>23</v>
+        <v>35.055300000000003</v>
       </c>
       <c r="B84">
-        <v>20220907</v>
+        <v>20210510</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>23.55</v>
+        <v>34.498899999999999</v>
       </c>
       <c r="B85">
-        <v>20220906</v>
+        <v>20210511</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>23.9</v>
+        <v>34.888399999999997</v>
       </c>
       <c r="B86">
-        <v>20220905</v>
+        <v>20210512</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>23</v>
+        <v>34.220700000000001</v>
       </c>
       <c r="B87">
-        <v>20220831</v>
+        <v>20210513</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>23.05</v>
+        <v>34.164999999999999</v>
       </c>
       <c r="B88">
-        <v>20220830</v>
+        <v>20210514</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>23</v>
+        <v>34.443199999999997</v>
       </c>
       <c r="B89">
-        <v>20220829</v>
+        <v>20210517</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>23.5</v>
+        <v>35.277900000000002</v>
       </c>
       <c r="B90">
-        <v>20220826</v>
+        <v>20210518</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>23.85</v>
+        <v>36.780299999999997</v>
       </c>
       <c r="B91">
-        <v>20220825</v>
+        <v>20210519</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>23.5</v>
+        <v>37.058500000000002</v>
       </c>
       <c r="B92">
-        <v>20220824</v>
+        <v>20210520</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>23.65</v>
+        <v>36.502000000000002</v>
       </c>
       <c r="B93">
-        <v>20220823</v>
+        <v>20210521</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>23.35</v>
+        <v>36.390799999999999</v>
       </c>
       <c r="B94">
-        <v>20220822</v>
+        <v>20210524</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>23.75</v>
+        <v>37.503599999999999</v>
       </c>
       <c r="B95">
-        <v>20220819</v>
+        <v>20210525</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>24.15</v>
+        <v>37.726199999999999</v>
       </c>
       <c r="B96">
-        <v>20220818</v>
+        <v>20210526</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>24.3</v>
+        <v>37.169800000000002</v>
       </c>
       <c r="B97">
-        <v>20220817</v>
+        <v>20210527</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>24.55</v>
+        <v>37.3367</v>
       </c>
       <c r="B98">
-        <v>20220816</v>
+        <v>20210528</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>24</v>
+        <v>39.884700000000002</v>
       </c>
       <c r="B99">
-        <v>20220815</v>
+        <v>20210531</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>23.95</v>
+        <v>42.003799999999998</v>
       </c>
       <c r="B100">
-        <v>20220812</v>
+        <v>20210601</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>23.4</v>
+        <v>40.868499999999997</v>
       </c>
       <c r="B101">
-        <v>20220811</v>
+        <v>20210602</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>23.8</v>
+        <v>41.095599999999997</v>
       </c>
       <c r="B102">
-        <v>20220810</v>
+        <v>20210603</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>24.1</v>
+        <v>41.246899999999997</v>
       </c>
       <c r="B103">
-        <v>20220809</v>
+        <v>20210604</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>23.6</v>
+        <v>39.884700000000002</v>
       </c>
       <c r="B104">
-        <v>20220808</v>
+        <v>20210607</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>23.3</v>
+        <v>37.841200000000001</v>
       </c>
       <c r="B105">
-        <v>20220805</v>
+        <v>20210608</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>23.65</v>
+        <v>38.068300000000001</v>
       </c>
       <c r="B106">
-        <v>20220804</v>
+        <v>20210609</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>23.75</v>
+        <v>39.052199999999999</v>
       </c>
       <c r="B107">
-        <v>20220803</v>
+        <v>20210610</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>22.9</v>
+        <v>40.187399999999997</v>
       </c>
       <c r="B108">
-        <v>20220802</v>
+        <v>20210611</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>22.8</v>
+        <v>40.565800000000003</v>
       </c>
       <c r="B109">
-        <v>20220801</v>
+        <v>20210614</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>21.5</v>
+        <v>40.263100000000001</v>
       </c>
       <c r="B110">
-        <v>20220729</v>
+        <v>20210615</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>21.4</v>
+        <v>39.203499999999998</v>
       </c>
       <c r="B111">
-        <v>20220728</v>
+        <v>20210616</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>21.25</v>
+        <v>38.900799999999997</v>
       </c>
       <c r="B112">
-        <v>20220727</v>
+        <v>20210617</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>21.65</v>
+        <v>39.430599999999998</v>
       </c>
       <c r="B113">
-        <v>20220726</v>
+        <v>20210618</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>21.9</v>
+        <v>38.749400000000001</v>
       </c>
       <c r="B114">
-        <v>20220725</v>
+        <v>20210621</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>22.2</v>
+        <v>39.127800000000001</v>
       </c>
       <c r="B115">
-        <v>20220722</v>
+        <v>20210622</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>22.7</v>
+        <v>38.900799999999997</v>
       </c>
       <c r="B116">
-        <v>20220721</v>
+        <v>20210623</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>22.35</v>
+        <v>38.295299999999997</v>
       </c>
       <c r="B117">
-        <v>20220720</v>
+        <v>20210624</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>22.15</v>
+        <v>38.371000000000002</v>
       </c>
       <c r="B118">
-        <v>20220719</v>
+        <v>20210625</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>22.6</v>
+        <v>39.657600000000002</v>
       </c>
       <c r="B119">
-        <v>20220718</v>
+        <v>20210628</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>23.2</v>
+        <v>39.203499999999998</v>
       </c>
       <c r="B120">
-        <v>20220715</v>
+        <v>20210629</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>22.2</v>
+        <v>38.976500000000001</v>
       </c>
       <c r="B121">
-        <v>20220714</v>
+        <v>20210630</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>22.3</v>
+        <v>39.960299999999997</v>
       </c>
       <c r="B122">
-        <v>20220713</v>
+        <v>20210701</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>22.3</v>
+        <v>39.581899999999997</v>
       </c>
       <c r="B123">
-        <v>20220712</v>
+        <v>20210702</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>22.05</v>
+        <v>38.749400000000001</v>
       </c>
       <c r="B124">
-        <v>20220711</v>
+        <v>20210705</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>22.45</v>
+        <v>36.327599999999997</v>
       </c>
       <c r="B125">
-        <v>20220708</v>
+        <v>20210706</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>21.75</v>
+        <v>37.765599999999999</v>
       </c>
       <c r="B126">
-        <v>20220707</v>
+        <v>20210707</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>21.45</v>
+        <v>37.084400000000002</v>
       </c>
       <c r="B127">
-        <v>20220706</v>
+        <v>20210708</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>21.9</v>
+        <v>35.797800000000002</v>
       </c>
       <c r="B128">
-        <v>20220705</v>
+        <v>20210709</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>22</v>
+        <v>34.019300000000001</v>
       </c>
       <c r="B129">
-        <v>20220704</v>
+        <v>20210712</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>22.4</v>
+        <v>34.435499999999998</v>
       </c>
       <c r="B130">
-        <v>20220701</v>
+        <v>20210713</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>22.3</v>
+        <v>34.057099999999998</v>
       </c>
       <c r="B131">
-        <v>20220630</v>
+        <v>20210714</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>22.75</v>
+        <v>35.192300000000003</v>
       </c>
       <c r="B132">
-        <v>20220629</v>
+        <v>20210715</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>22.5</v>
+        <v>35.381599999999999</v>
       </c>
       <c r="B133">
-        <v>20220628</v>
+        <v>20210716</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>22.9</v>
+        <v>33.527299999999997</v>
       </c>
       <c r="B134">
-        <v>20220627</v>
+        <v>20210719</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>21.8</v>
+        <v>35.797800000000002</v>
       </c>
       <c r="B135">
-        <v>20220624</v>
+        <v>20210720</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>21.8</v>
+        <v>35.381599999999999</v>
       </c>
       <c r="B136">
-        <v>20220623</v>
+        <v>20210721</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>21.5</v>
+        <v>35.722099999999998</v>
       </c>
       <c r="B137">
-        <v>20220622</v>
+        <v>20210722</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>20.8</v>
+        <v>34.662599999999998</v>
       </c>
       <c r="B138">
-        <v>20220621</v>
+        <v>20210723</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>21.6</v>
+        <v>34.511200000000002</v>
       </c>
       <c r="B139">
-        <v>20220620</v>
+        <v>20210726</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>23.2</v>
+        <v>34.965299999999999</v>
       </c>
       <c r="B140">
-        <v>20220617</v>
+        <v>20210727</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>23.461600000000001</v>
+        <v>35.343699999999998</v>
       </c>
       <c r="B141">
-        <v>20220616</v>
+        <v>20210728</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>22.250599999999999</v>
+        <v>35.6464</v>
       </c>
       <c r="B142">
-        <v>20220615</v>
+        <v>20210729</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>22.931799999999999</v>
+        <v>35.797800000000002</v>
       </c>
       <c r="B143">
-        <v>20220614</v>
+        <v>20210730</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>24.067</v>
+        <v>35.76</v>
       </c>
       <c r="B144">
-        <v>20220613</v>
+        <v>20210802</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>25.429300000000001</v>
+        <v>35.76</v>
       </c>
       <c r="B145">
-        <v>20220610</v>
+        <v>20210803</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>25.5807</v>
+        <v>35.949199999999998</v>
       </c>
       <c r="B146">
-        <v>20220609</v>
+        <v>20210804</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>24.8995</v>
+        <v>36.933</v>
       </c>
       <c r="B147">
-        <v>20220608</v>
+        <v>20210805</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>25.1266</v>
+        <v>36.630299999999998</v>
       </c>
       <c r="B148">
-        <v>20220607</v>
+        <v>20210806</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>25.202300000000001</v>
+        <v>37.614199999999997</v>
       </c>
       <c r="B149">
-        <v>20220606</v>
+        <v>20210809</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>25.277899999999999</v>
+        <v>37.387099999999997</v>
       </c>
       <c r="B150">
-        <v>20220603</v>
+        <v>20210810</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>25.088699999999999</v>
+        <v>37.046599999999998</v>
       </c>
       <c r="B151">
-        <v>20220602</v>
+        <v>20210811</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>25.9969</v>
+        <v>36.630299999999998</v>
       </c>
       <c r="B152">
-        <v>20220601</v>
+        <v>20210812</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>26.261800000000001</v>
+        <v>36.819499999999998</v>
       </c>
       <c r="B153">
-        <v>20220531</v>
+        <v>20210813</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>26.8294</v>
+        <v>37.424999999999997</v>
       </c>
       <c r="B154">
-        <v>20220530</v>
+        <v>20210816</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>26.8294</v>
+        <v>38.143999999999998</v>
       </c>
       <c r="B155">
-        <v>20220527</v>
+        <v>20210817</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>26.488900000000001</v>
+        <v>38.143999999999998</v>
       </c>
       <c r="B156">
-        <v>20220526</v>
+        <v>20210818</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>26.072600000000001</v>
+        <v>38.522399999999998</v>
       </c>
       <c r="B157">
-        <v>20220525</v>
+        <v>20210819</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>26.4132</v>
+        <v>37.084400000000002</v>
       </c>
       <c r="B158">
-        <v>20220524</v>
+        <v>20210820</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>27.813300000000002</v>
+        <v>35.949199999999998</v>
       </c>
       <c r="B159">
-        <v>20220523</v>
+        <v>20210823</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>28.494399999999999</v>
+        <v>36.138399999999997</v>
       </c>
       <c r="B160">
-        <v>20220520</v>
+        <v>20210824</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>28.683700000000002</v>
+        <v>36.630299999999998</v>
       </c>
       <c r="B161">
-        <v>20220519</v>
+        <v>20210825</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>28.910699999999999</v>
+        <v>36.100499999999997</v>
       </c>
       <c r="B162">
-        <v>20220518</v>
+        <v>20210826</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>28.910699999999999</v>
+        <v>36.024900000000002</v>
       </c>
       <c r="B163">
-        <v>20220517</v>
+        <v>20210827</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>27.4727</v>
+        <v>36.857399999999998</v>
       </c>
       <c r="B164">
-        <v>20220516</v>
+        <v>20210830</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>27.17</v>
+        <v>37.311500000000002</v>
       </c>
       <c r="B165">
-        <v>20220513</v>
+        <v>20210831</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>28.948499999999999</v>
+        <v>37.235799999999998</v>
       </c>
       <c r="B166">
-        <v>20220512</v>
+        <v>20210901</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>30.764900000000001</v>
+        <v>38.749400000000001</v>
       </c>
       <c r="B167">
-        <v>20220511</v>
+        <v>20210906</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>31.105499999999999</v>
+        <v>38.371000000000002</v>
       </c>
       <c r="B168">
-        <v>20220510</v>
+        <v>20210907</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>30.235099999999999</v>
+        <v>38.825099999999999</v>
       </c>
       <c r="B169">
-        <v>20220509</v>
+        <v>20210908</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>31.635300000000001</v>
+        <v>39.279200000000003</v>
       </c>
       <c r="B170">
-        <v>20220506</v>
+        <v>20210909</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>31.8245</v>
+        <v>38.976500000000001</v>
       </c>
       <c r="B171">
-        <v>20220505</v>
+        <v>20210910</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>31.7866</v>
+        <v>38.4467</v>
       </c>
       <c r="B172">
-        <v>20220504</v>
+        <v>20210913</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>32.770499999999998</v>
+        <v>38.068300000000001</v>
       </c>
       <c r="B173">
-        <v>20220429</v>
+        <v>20210914</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>32.619100000000003</v>
+        <v>39.052199999999999</v>
       </c>
       <c r="B174">
-        <v>20220428</v>
+        <v>20210915</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>32.164999999999999</v>
+        <v>38.825099999999999</v>
       </c>
       <c r="B175">
-        <v>20220427</v>
+        <v>20210916</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>31.1812</v>
+        <v>39.203499999999998</v>
       </c>
       <c r="B176">
-        <v>20220426</v>
+        <v>20210917</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>30.840599999999998</v>
+        <v>38.825099999999999</v>
       </c>
       <c r="B177">
-        <v>20220425</v>
+        <v>20210920</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>33.148899999999998</v>
+        <v>38.4467</v>
       </c>
       <c r="B178">
-        <v>20220422</v>
+        <v>20210921</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>32.808300000000003</v>
+        <v>38.522399999999998</v>
       </c>
       <c r="B179">
-        <v>20220421</v>
+        <v>20210922</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>32.694800000000001</v>
+        <v>38.598100000000002</v>
       </c>
       <c r="B180">
-        <v>20220420</v>
+        <v>20210923</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>32.770499999999998</v>
+        <v>38.4467</v>
       </c>
       <c r="B181">
-        <v>20220419</v>
+        <v>20210924</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>32.278599999999997</v>
+        <v>38.4467</v>
       </c>
       <c r="B182">
-        <v>20220418</v>
+        <v>20210927</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>33.451700000000002</v>
+        <v>39.808999999999997</v>
       </c>
       <c r="B183">
-        <v>20220415</v>
+        <v>20210928</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>33.981400000000001</v>
+        <v>40.338799999999999</v>
       </c>
       <c r="B184">
-        <v>20220414</v>
+        <v>20210929</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>34.208500000000001</v>
+        <v>40.036000000000001</v>
       </c>
       <c r="B185">
-        <v>20220413</v>
+        <v>20210930</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>34.132800000000003</v>
+        <v>40.414400000000001</v>
       </c>
       <c r="B186">
-        <v>20220412</v>
+        <v>20211001</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>35.116700000000002</v>
+        <v>42.003799999999998</v>
       </c>
       <c r="B187">
-        <v>20220408</v>
+        <v>20211004</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>35.230200000000004</v>
+        <v>41.852400000000003</v>
       </c>
       <c r="B188">
-        <v>20220407</v>
+        <v>20211005</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>35.76</v>
+        <v>42.457900000000002</v>
       </c>
       <c r="B189">
-        <v>20220406</v>
+        <v>20211006</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>34.889600000000002</v>
+        <v>42.079500000000003</v>
       </c>
       <c r="B190">
-        <v>20220405</v>
+        <v>20211007</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>34.700400000000002</v>
+        <v>42.155099999999997</v>
       </c>
       <c r="B191">
-        <v>20220404</v>
+        <v>20211008</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>34.5869</v>
+        <v>43.290399999999998</v>
       </c>
       <c r="B192">
-        <v>20220401</v>
+        <v>20211011</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>34.132800000000003</v>
+        <v>43.139000000000003</v>
       </c>
       <c r="B193">
-        <v>20220331</v>
+        <v>20211012</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>34.435499999999998</v>
+        <v>42.9876</v>
       </c>
       <c r="B194">
-        <v>20220330</v>
+        <v>20211013</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>34.700400000000002</v>
+        <v>42.9876</v>
       </c>
       <c r="B195">
-        <v>20220329</v>
+        <v>20211014</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>34.738300000000002</v>
+        <v>43.366100000000003</v>
       </c>
       <c r="B196">
-        <v>20220328</v>
+        <v>20211015</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>35.116700000000002</v>
+        <v>43.820099999999996</v>
       </c>
       <c r="B197">
-        <v>20220325</v>
+        <v>20211018</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>35.116700000000002</v>
+        <v>43.290399999999998</v>
       </c>
       <c r="B198">
-        <v>20220324</v>
+        <v>20211019</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>35.419400000000003</v>
+        <v>43.063299999999998</v>
       </c>
       <c r="B199">
-        <v>20220323</v>
+        <v>20211020</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>35.495100000000001</v>
+        <v>43.290399999999998</v>
       </c>
       <c r="B200">
-        <v>20220322</v>
+        <v>20211021</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>35.4572</v>
+        <v>42.911999999999999</v>
       </c>
       <c r="B201">
-        <v>20220321</v>
+        <v>20211022</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>35.192300000000003</v>
+        <v>41.701000000000001</v>
       </c>
       <c r="B202">
-        <v>20220318</v>
+        <v>20211025</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>34.7761</v>
+        <v>42.609200000000001</v>
       </c>
       <c r="B203">
-        <v>20220317</v>
+        <v>20211026</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>34.965299999999999</v>
+        <v>43.820099999999996</v>
       </c>
       <c r="B204">
-        <v>20220316</v>
+        <v>20211027</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>34.927500000000002</v>
+        <v>43.895800000000001</v>
       </c>
       <c r="B205">
-        <v>20220315</v>
+        <v>20211028</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>34.662599999999998</v>
+        <v>43.214700000000001</v>
       </c>
       <c r="B206">
-        <v>20220314</v>
+        <v>20211029</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>36.024900000000002</v>
+        <v>42.155099999999997</v>
       </c>
       <c r="B207">
-        <v>20220311</v>
+        <v>20211101</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>37.197899999999997</v>
+        <v>42.003799999999998</v>
       </c>
       <c r="B208">
-        <v>20220310</v>
+        <v>20211102</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>37.727699999999999</v>
+        <v>42.079500000000003</v>
       </c>
       <c r="B209">
-        <v>20220309</v>
+        <v>20211103</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>37.424999999999997</v>
+        <v>42.609200000000001</v>
       </c>
       <c r="B210">
-        <v>20220308</v>
+        <v>20211104</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>38.673699999999997</v>
+        <v>42.836300000000001</v>
       </c>
       <c r="B211">
-        <v>20220307</v>
+        <v>20211105</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>37.689900000000002</v>
+        <v>42.9876</v>
       </c>
       <c r="B212">
-        <v>20220304</v>
+        <v>20211108</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>37.916899999999998</v>
+        <v>42.760599999999997</v>
       </c>
       <c r="B213">
-        <v>20220303</v>
+        <v>20211109</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>35.495100000000001</v>
+        <v>41.852400000000003</v>
       </c>
       <c r="B214">
-        <v>20220302</v>
+        <v>20211110</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>35.495100000000001</v>
+        <v>40.868499999999997</v>
       </c>
       <c r="B215">
-        <v>20220301</v>
+        <v>20211111</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>35.722099999999998</v>
+        <v>41.322600000000001</v>
       </c>
       <c r="B216">
-        <v>20220228</v>
+        <v>20211112</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>34.738300000000002</v>
+        <v>40.565800000000003</v>
       </c>
       <c r="B217">
-        <v>20220225</v>
+        <v>20211115</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>34.813899999999997</v>
+        <v>39.354900000000001</v>
       </c>
       <c r="B218">
-        <v>20220224</v>
+        <v>20211116</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>35.343699999999998</v>
+        <v>38.900799999999997</v>
       </c>
       <c r="B219">
-        <v>20220223</v>
+        <v>20211117</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>35.116700000000002</v>
+        <v>37.803400000000003</v>
       </c>
       <c r="B220">
-        <v>20220222</v>
+        <v>20211118</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>35.305900000000001</v>
+        <v>36.327599999999997</v>
       </c>
       <c r="B221">
-        <v>20220221</v>
+        <v>20211119</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>35.608600000000003</v>
+        <v>36.819499999999998</v>
       </c>
       <c r="B222">
-        <v>20220218</v>
+        <v>20211122</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>35.192300000000003</v>
+        <v>37.500700000000002</v>
       </c>
       <c r="B223">
-        <v>20220217</v>
+        <v>20211123</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>34.813899999999997</v>
+        <v>36.819499999999998</v>
       </c>
       <c r="B224">
-        <v>20220216</v>
+        <v>20211124</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>34.813899999999997</v>
+        <v>37.273600000000002</v>
       </c>
       <c r="B225">
-        <v>20220215</v>
+        <v>20211125</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>34.965299999999999</v>
+        <v>37.122199999999999</v>
       </c>
       <c r="B226">
-        <v>20220214</v>
+        <v>20211126</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>35.6843</v>
+        <v>36.630299999999998</v>
       </c>
       <c r="B227">
-        <v>20220211</v>
+        <v>20211129</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>35.570799999999998</v>
+        <v>37.046599999999998</v>
       </c>
       <c r="B228">
-        <v>20220210</v>
+        <v>20211130</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>35.797800000000002</v>
+        <v>37.084400000000002</v>
       </c>
       <c r="B229">
-        <v>20220209</v>
+        <v>20211201</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>34.473399999999998</v>
+        <v>36.781700000000001</v>
       </c>
       <c r="B230">
-        <v>20220208</v>
+        <v>20211202</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>32.581299999999999</v>
+        <v>36.100499999999997</v>
       </c>
       <c r="B231">
-        <v>20220207</v>
+        <v>20211203</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>31.937999999999999</v>
+        <v>34.624699999999997</v>
       </c>
       <c r="B232">
-        <v>20220128</v>
+        <v>20211206</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>31.900200000000002</v>
+        <v>36.024900000000002</v>
       </c>
       <c r="B233">
-        <v>20220127</v>
+        <v>20211207</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>32.884</v>
+        <v>35.722099999999998</v>
       </c>
       <c r="B234">
-        <v>20220126</v>
+        <v>20211208</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>32.732700000000001</v>
+        <v>35.6464</v>
       </c>
       <c r="B235">
-        <v>20220125</v>
+        <v>20211209</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>30.802800000000001</v>
+        <v>35.192300000000003</v>
       </c>
       <c r="B236">
-        <v>20220124</v>
+        <v>20211210</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>32.770499999999998</v>
+        <v>35.230200000000004</v>
       </c>
       <c r="B237">
-        <v>20220121</v>
+        <v>20211213</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>33.3003</v>
+        <v>36.100499999999997</v>
       </c>
       <c r="B238">
-        <v>20220120</v>
+        <v>20211214</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>32.921900000000001</v>
+        <v>36.176200000000001</v>
       </c>
       <c r="B239">
-        <v>20220119</v>
+        <v>20211215</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>33.3003</v>
+        <v>35.949199999999998</v>
       </c>
       <c r="B240">
-        <v>20220118</v>
+        <v>20211216</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>34.7761</v>
+        <v>35.343699999999998</v>
       </c>
       <c r="B241">
-        <v>20220117</v>
+        <v>20211217</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>35.003100000000003</v>
+        <v>35.495100000000001</v>
       </c>
       <c r="B242">
-        <v>20220114</v>
+        <v>20211220</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>35.343699999999998</v>
+        <v>34.889600000000002</v>
       </c>
       <c r="B243">
-        <v>20220113</v>
+        <v>20211221</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>34.965299999999999</v>
+        <v>34.132800000000003</v>
       </c>
       <c r="B244">
-        <v>20220112</v>
+        <v>20211222</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>34.132800000000003</v>
+        <v>34.019300000000001</v>
       </c>
       <c r="B245">
-        <v>20220111</v>
+        <v>20211223</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>34.548999999999999</v>
+        <v>34.851799999999997</v>
       </c>
       <c r="B246">
-        <v>20220110</v>
+        <v>20211224</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>34.662599999999998</v>
+        <v>34.738300000000002</v>
       </c>
       <c r="B247">
-        <v>20220107</v>
+        <v>20211227</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>34.889600000000002</v>
+        <v>34.662599999999998</v>
       </c>
       <c r="B248">
-        <v>20220106</v>
+        <v>20211228</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>35.419400000000003</v>
+        <v>34.662599999999998</v>
       </c>
       <c r="B249">
-        <v>20220105</v>
+        <v>20211229</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>35.381599999999999</v>
+        <v>34.5869</v>
       </c>
       <c r="B250">
-        <v>20220104</v>
+        <v>20211230</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,1997 +2400,2000 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>34.5869</v>
+        <v>35.381599999999999</v>
       </c>
       <c r="B252">
-        <v>20211230</v>
+        <v>20220104</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>34.662599999999998</v>
+        <v>35.419400000000003</v>
       </c>
       <c r="B253">
-        <v>20211229</v>
+        <v>20220105</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>34.662599999999998</v>
+        <v>34.889600000000002</v>
       </c>
       <c r="B254">
-        <v>20211228</v>
+        <v>20220106</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>34.738300000000002</v>
+        <v>34.662599999999998</v>
       </c>
       <c r="B255">
-        <v>20211227</v>
+        <v>20220107</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>34.851799999999997</v>
+        <v>34.548999999999999</v>
       </c>
       <c r="B256">
-        <v>20211224</v>
+        <v>20220110</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>34.019300000000001</v>
+        <v>34.132800000000003</v>
       </c>
       <c r="B257">
-        <v>20211223</v>
+        <v>20220111</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>34.132800000000003</v>
+        <v>34.965299999999999</v>
       </c>
       <c r="B258">
-        <v>20211222</v>
+        <v>20220112</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>34.889600000000002</v>
+        <v>35.343699999999998</v>
       </c>
       <c r="B259">
-        <v>20211221</v>
+        <v>20220113</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>35.495100000000001</v>
+        <v>35.003100000000003</v>
       </c>
       <c r="B260">
-        <v>20211220</v>
+        <v>20220114</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>35.343699999999998</v>
+        <v>34.7761</v>
       </c>
       <c r="B261">
-        <v>20211217</v>
+        <v>20220117</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>35.949199999999998</v>
+        <v>33.3003</v>
       </c>
       <c r="B262">
-        <v>20211216</v>
+        <v>20220118</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>36.176200000000001</v>
+        <v>32.921900000000001</v>
       </c>
       <c r="B263">
-        <v>20211215</v>
+        <v>20220119</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>36.100499999999997</v>
+        <v>33.3003</v>
       </c>
       <c r="B264">
-        <v>20211214</v>
+        <v>20220120</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>35.230200000000004</v>
+        <v>32.770499999999998</v>
       </c>
       <c r="B265">
-        <v>20211213</v>
+        <v>20220121</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>35.192300000000003</v>
+        <v>30.802800000000001</v>
       </c>
       <c r="B266">
-        <v>20211210</v>
+        <v>20220124</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>35.6464</v>
+        <v>32.732700000000001</v>
       </c>
       <c r="B267">
-        <v>20211209</v>
+        <v>20220125</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>35.722099999999998</v>
+        <v>32.884</v>
       </c>
       <c r="B268">
-        <v>20211208</v>
+        <v>20220126</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>36.024900000000002</v>
+        <v>31.900200000000002</v>
       </c>
       <c r="B269">
-        <v>20211207</v>
+        <v>20220127</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>34.624699999999997</v>
+        <v>31.937999999999999</v>
       </c>
       <c r="B270">
-        <v>20211206</v>
+        <v>20220128</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>36.100499999999997</v>
+        <v>32.581299999999999</v>
       </c>
       <c r="B271">
-        <v>20211203</v>
+        <v>20220207</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>36.781700000000001</v>
+        <v>34.473399999999998</v>
       </c>
       <c r="B272">
-        <v>20211202</v>
+        <v>20220208</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>37.084400000000002</v>
+        <v>35.797800000000002</v>
       </c>
       <c r="B273">
-        <v>20211201</v>
+        <v>20220209</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>37.046599999999998</v>
+        <v>35.570799999999998</v>
       </c>
       <c r="B274">
-        <v>20211130</v>
+        <v>20220210</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>36.630299999999998</v>
+        <v>35.6843</v>
       </c>
       <c r="B275">
-        <v>20211129</v>
+        <v>20220211</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>37.122199999999999</v>
+        <v>34.965299999999999</v>
       </c>
       <c r="B276">
-        <v>20211126</v>
+        <v>20220214</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>37.273600000000002</v>
+        <v>34.813899999999997</v>
       </c>
       <c r="B277">
-        <v>20211125</v>
+        <v>20220215</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>36.819499999999998</v>
+        <v>34.813899999999997</v>
       </c>
       <c r="B278">
-        <v>20211124</v>
+        <v>20220216</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>37.500700000000002</v>
+        <v>35.192300000000003</v>
       </c>
       <c r="B279">
-        <v>20211123</v>
+        <v>20220217</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>36.819499999999998</v>
+        <v>35.608600000000003</v>
       </c>
       <c r="B280">
-        <v>20211122</v>
+        <v>20220218</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>36.327599999999997</v>
+        <v>35.305900000000001</v>
       </c>
       <c r="B281">
-        <v>20211119</v>
+        <v>20220221</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>37.803400000000003</v>
+        <v>35.116700000000002</v>
       </c>
       <c r="B282">
-        <v>20211118</v>
+        <v>20220222</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>38.900799999999997</v>
+        <v>35.343699999999998</v>
       </c>
       <c r="B283">
-        <v>20211117</v>
+        <v>20220223</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>39.354900000000001</v>
+        <v>34.813899999999997</v>
       </c>
       <c r="B284">
-        <v>20211116</v>
+        <v>20220224</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>40.565800000000003</v>
+        <v>34.738300000000002</v>
       </c>
       <c r="B285">
-        <v>20211115</v>
+        <v>20220225</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>41.322600000000001</v>
+        <v>35.722099999999998</v>
       </c>
       <c r="B286">
-        <v>20211112</v>
+        <v>20220228</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>40.868499999999997</v>
+        <v>35.495100000000001</v>
       </c>
       <c r="B287">
-        <v>20211111</v>
+        <v>20220301</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>41.852400000000003</v>
+        <v>35.495100000000001</v>
       </c>
       <c r="B288">
-        <v>20211110</v>
+        <v>20220302</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>42.760599999999997</v>
+        <v>37.916899999999998</v>
       </c>
       <c r="B289">
-        <v>20211109</v>
+        <v>20220303</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>42.9876</v>
+        <v>37.689900000000002</v>
       </c>
       <c r="B290">
-        <v>20211108</v>
+        <v>20220304</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>42.836300000000001</v>
+        <v>38.673699999999997</v>
       </c>
       <c r="B291">
-        <v>20211105</v>
+        <v>20220307</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>42.609200000000001</v>
+        <v>37.424999999999997</v>
       </c>
       <c r="B292">
-        <v>20211104</v>
+        <v>20220308</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>42.079500000000003</v>
+        <v>37.727699999999999</v>
       </c>
       <c r="B293">
-        <v>20211103</v>
+        <v>20220309</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>42.003799999999998</v>
+        <v>37.197899999999997</v>
       </c>
       <c r="B294">
-        <v>20211102</v>
+        <v>20220310</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>42.155099999999997</v>
+        <v>36.024900000000002</v>
       </c>
       <c r="B295">
-        <v>20211101</v>
+        <v>20220311</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>43.214700000000001</v>
+        <v>34.662599999999998</v>
       </c>
       <c r="B296">
-        <v>20211029</v>
+        <v>20220314</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>43.895800000000001</v>
+        <v>34.927500000000002</v>
       </c>
       <c r="B297">
-        <v>20211028</v>
+        <v>20220315</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>43.820099999999996</v>
+        <v>34.965299999999999</v>
       </c>
       <c r="B298">
-        <v>20211027</v>
+        <v>20220316</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>42.609200000000001</v>
+        <v>34.7761</v>
       </c>
       <c r="B299">
-        <v>20211026</v>
+        <v>20220317</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>41.701000000000001</v>
+        <v>35.192300000000003</v>
       </c>
       <c r="B300">
-        <v>20211025</v>
+        <v>20220318</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>42.911999999999999</v>
+        <v>35.4572</v>
       </c>
       <c r="B301">
-        <v>20211022</v>
+        <v>20220321</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>43.290399999999998</v>
+        <v>35.495100000000001</v>
       </c>
       <c r="B302">
-        <v>20211021</v>
+        <v>20220322</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>43.063299999999998</v>
+        <v>35.419400000000003</v>
       </c>
       <c r="B303">
-        <v>20211020</v>
+        <v>20220323</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>43.290399999999998</v>
+        <v>35.116700000000002</v>
       </c>
       <c r="B304">
-        <v>20211019</v>
+        <v>20220324</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>43.820099999999996</v>
+        <v>35.116700000000002</v>
       </c>
       <c r="B305">
-        <v>20211018</v>
+        <v>20220325</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>43.366100000000003</v>
+        <v>34.738300000000002</v>
       </c>
       <c r="B306">
-        <v>20211015</v>
+        <v>20220328</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>42.9876</v>
+        <v>34.700400000000002</v>
       </c>
       <c r="B307">
-        <v>20211014</v>
+        <v>20220329</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>42.9876</v>
+        <v>34.435499999999998</v>
       </c>
       <c r="B308">
-        <v>20211013</v>
+        <v>20220330</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>43.139000000000003</v>
+        <v>34.132800000000003</v>
       </c>
       <c r="B309">
-        <v>20211012</v>
+        <v>20220331</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>43.290399999999998</v>
+        <v>34.5869</v>
       </c>
       <c r="B310">
-        <v>20211011</v>
+        <v>20220401</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>42.155099999999997</v>
+        <v>34.700400000000002</v>
       </c>
       <c r="B311">
-        <v>20211008</v>
+        <v>20220404</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>42.079500000000003</v>
+        <v>34.889600000000002</v>
       </c>
       <c r="B312">
-        <v>20211007</v>
+        <v>20220405</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>42.457900000000002</v>
+        <v>35.76</v>
       </c>
       <c r="B313">
-        <v>20211006</v>
+        <v>20220406</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>41.852400000000003</v>
+        <v>35.230200000000004</v>
       </c>
       <c r="B314">
-        <v>20211005</v>
+        <v>20220407</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>42.003799999999998</v>
+        <v>35.116700000000002</v>
       </c>
       <c r="B315">
-        <v>20211004</v>
+        <v>20220408</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>40.414400000000001</v>
+        <v>34.132800000000003</v>
       </c>
       <c r="B316">
-        <v>20211001</v>
+        <v>20220412</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>40.036000000000001</v>
+        <v>34.208500000000001</v>
       </c>
       <c r="B317">
-        <v>20210930</v>
+        <v>20220413</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>40.338799999999999</v>
+        <v>33.981400000000001</v>
       </c>
       <c r="B318">
-        <v>20210929</v>
+        <v>20220414</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>39.808999999999997</v>
+        <v>33.451700000000002</v>
       </c>
       <c r="B319">
-        <v>20210928</v>
+        <v>20220415</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>38.4467</v>
+        <v>32.278599999999997</v>
       </c>
       <c r="B320">
-        <v>20210927</v>
+        <v>20220418</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>38.4467</v>
+        <v>32.770499999999998</v>
       </c>
       <c r="B321">
-        <v>20210924</v>
+        <v>20220419</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>38.598100000000002</v>
+        <v>32.694800000000001</v>
       </c>
       <c r="B322">
-        <v>20210923</v>
+        <v>20220420</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>38.522399999999998</v>
+        <v>32.808300000000003</v>
       </c>
       <c r="B323">
-        <v>20210922</v>
+        <v>20220421</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>38.4467</v>
+        <v>33.148899999999998</v>
       </c>
       <c r="B324">
-        <v>20210921</v>
+        <v>20220422</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>38.825099999999999</v>
+        <v>30.840599999999998</v>
       </c>
       <c r="B325">
-        <v>20210920</v>
+        <v>20220425</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>39.203499999999998</v>
+        <v>31.1812</v>
       </c>
       <c r="B326">
-        <v>20210917</v>
+        <v>20220426</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>38.825099999999999</v>
+        <v>32.164999999999999</v>
       </c>
       <c r="B327">
-        <v>20210916</v>
+        <v>20220427</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>39.052199999999999</v>
+        <v>32.619100000000003</v>
       </c>
       <c r="B328">
-        <v>20210915</v>
+        <v>20220428</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>38.068300000000001</v>
+        <v>32.770499999999998</v>
       </c>
       <c r="B329">
-        <v>20210914</v>
+        <v>20220429</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>38.4467</v>
+        <v>31.7866</v>
       </c>
       <c r="B330">
-        <v>20210913</v>
+        <v>20220504</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>38.976500000000001</v>
+        <v>31.8245</v>
       </c>
       <c r="B331">
-        <v>20210910</v>
+        <v>20220505</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>39.279200000000003</v>
+        <v>31.635300000000001</v>
       </c>
       <c r="B332">
-        <v>20210909</v>
+        <v>20220506</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>38.825099999999999</v>
+        <v>30.235099999999999</v>
       </c>
       <c r="B333">
-        <v>20210908</v>
+        <v>20220509</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>38.371000000000002</v>
+        <v>31.105499999999999</v>
       </c>
       <c r="B334">
-        <v>20210907</v>
+        <v>20220510</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>38.749400000000001</v>
+        <v>30.764900000000001</v>
       </c>
       <c r="B335">
-        <v>20210906</v>
+        <v>20220511</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>37.235799999999998</v>
+        <v>28.948499999999999</v>
       </c>
       <c r="B336">
-        <v>20210901</v>
+        <v>20220512</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>37.311500000000002</v>
+        <v>27.17</v>
       </c>
       <c r="B337">
-        <v>20210831</v>
+        <v>20220513</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>36.857399999999998</v>
+        <v>27.4727</v>
       </c>
       <c r="B338">
-        <v>20210830</v>
+        <v>20220516</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>36.024900000000002</v>
+        <v>28.910699999999999</v>
       </c>
       <c r="B339">
-        <v>20210827</v>
+        <v>20220517</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>36.100499999999997</v>
+        <v>28.910699999999999</v>
       </c>
       <c r="B340">
-        <v>20210826</v>
+        <v>20220518</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>36.630299999999998</v>
+        <v>28.683700000000002</v>
       </c>
       <c r="B341">
-        <v>20210825</v>
+        <v>20220519</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>36.138399999999997</v>
+        <v>28.494399999999999</v>
       </c>
       <c r="B342">
-        <v>20210824</v>
+        <v>20220520</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>35.949199999999998</v>
+        <v>27.813300000000002</v>
       </c>
       <c r="B343">
-        <v>20210823</v>
+        <v>20220523</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>37.084400000000002</v>
+        <v>26.4132</v>
       </c>
       <c r="B344">
-        <v>20210820</v>
+        <v>20220524</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>38.522399999999998</v>
+        <v>26.072600000000001</v>
       </c>
       <c r="B345">
-        <v>20210819</v>
+        <v>20220525</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>38.143999999999998</v>
+        <v>26.488900000000001</v>
       </c>
       <c r="B346">
-        <v>20210818</v>
+        <v>20220526</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>38.143999999999998</v>
+        <v>26.8294</v>
       </c>
       <c r="B347">
-        <v>20210817</v>
+        <v>20220527</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>37.424999999999997</v>
+        <v>26.8294</v>
       </c>
       <c r="B348">
-        <v>20210816</v>
+        <v>20220530</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>36.819499999999998</v>
+        <v>26.261800000000001</v>
       </c>
       <c r="B349">
-        <v>20210813</v>
+        <v>20220531</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>36.630299999999998</v>
+        <v>25.9969</v>
       </c>
       <c r="B350">
-        <v>20210812</v>
+        <v>20220601</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>37.046599999999998</v>
+        <v>25.088699999999999</v>
       </c>
       <c r="B351">
-        <v>20210811</v>
+        <v>20220602</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>37.387099999999997</v>
+        <v>25.277899999999999</v>
       </c>
       <c r="B352">
-        <v>20210810</v>
+        <v>20220603</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>37.614199999999997</v>
+        <v>25.202300000000001</v>
       </c>
       <c r="B353">
-        <v>20210809</v>
+        <v>20220606</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>36.630299999999998</v>
+        <v>25.1266</v>
       </c>
       <c r="B354">
-        <v>20210806</v>
+        <v>20220607</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>36.933</v>
+        <v>24.8995</v>
       </c>
       <c r="B355">
-        <v>20210805</v>
+        <v>20220608</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>35.949199999999998</v>
+        <v>25.5807</v>
       </c>
       <c r="B356">
-        <v>20210804</v>
+        <v>20220609</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>35.76</v>
+        <v>25.429300000000001</v>
       </c>
       <c r="B357">
-        <v>20210803</v>
+        <v>20220610</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>35.76</v>
+        <v>24.067</v>
       </c>
       <c r="B358">
-        <v>20210802</v>
+        <v>20220613</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>35.797800000000002</v>
+        <v>22.931799999999999</v>
       </c>
       <c r="B359">
-        <v>20210730</v>
+        <v>20220614</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>35.6464</v>
+        <v>22.250599999999999</v>
       </c>
       <c r="B360">
-        <v>20210729</v>
+        <v>20220615</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>35.343699999999998</v>
+        <v>23.461600000000001</v>
       </c>
       <c r="B361">
-        <v>20210728</v>
+        <v>20220616</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>34.965299999999999</v>
+        <v>23.2</v>
       </c>
       <c r="B362">
-        <v>20210727</v>
+        <v>20220617</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>34.511200000000002</v>
+        <v>21.6</v>
       </c>
       <c r="B363">
-        <v>20210726</v>
+        <v>20220620</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>34.662599999999998</v>
+        <v>20.8</v>
       </c>
       <c r="B364">
-        <v>20210723</v>
+        <v>20220621</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>35.722099999999998</v>
+        <v>21.5</v>
       </c>
       <c r="B365">
-        <v>20210722</v>
+        <v>20220622</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>35.381599999999999</v>
+        <v>21.8</v>
       </c>
       <c r="B366">
-        <v>20210721</v>
+        <v>20220623</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>35.797800000000002</v>
+        <v>21.8</v>
       </c>
       <c r="B367">
-        <v>20210720</v>
+        <v>20220624</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>33.527299999999997</v>
+        <v>22.9</v>
       </c>
       <c r="B368">
-        <v>20210719</v>
+        <v>20220627</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>35.381599999999999</v>
+        <v>22.5</v>
       </c>
       <c r="B369">
-        <v>20210716</v>
+        <v>20220628</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>35.192300000000003</v>
+        <v>22.75</v>
       </c>
       <c r="B370">
-        <v>20210715</v>
+        <v>20220629</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>34.057099999999998</v>
+        <v>22.3</v>
       </c>
       <c r="B371">
-        <v>20210714</v>
+        <v>20220630</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>34.435499999999998</v>
+        <v>22.4</v>
       </c>
       <c r="B372">
-        <v>20210713</v>
+        <v>20220701</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>34.019300000000001</v>
+        <v>22</v>
       </c>
       <c r="B373">
-        <v>20210712</v>
+        <v>20220704</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>35.797800000000002</v>
+        <v>21.9</v>
       </c>
       <c r="B374">
-        <v>20210709</v>
+        <v>20220705</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>37.084400000000002</v>
+        <v>21.45</v>
       </c>
       <c r="B375">
-        <v>20210708</v>
+        <v>20220706</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>37.765599999999999</v>
+        <v>21.75</v>
       </c>
       <c r="B376">
-        <v>20210707</v>
+        <v>20220707</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>36.327599999999997</v>
+        <v>22.45</v>
       </c>
       <c r="B377">
-        <v>20210706</v>
+        <v>20220708</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>38.749400000000001</v>
+        <v>22.05</v>
       </c>
       <c r="B378">
-        <v>20210705</v>
+        <v>20220711</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>39.581899999999997</v>
+        <v>22.3</v>
       </c>
       <c r="B379">
-        <v>20210702</v>
+        <v>20220712</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>39.960299999999997</v>
+        <v>22.3</v>
       </c>
       <c r="B380">
-        <v>20210701</v>
+        <v>20220713</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>38.976500000000001</v>
+        <v>22.2</v>
       </c>
       <c r="B381">
-        <v>20210630</v>
+        <v>20220714</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>39.203499999999998</v>
+        <v>23.2</v>
       </c>
       <c r="B382">
-        <v>20210629</v>
+        <v>20220715</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>39.657600000000002</v>
+        <v>22.6</v>
       </c>
       <c r="B383">
-        <v>20210628</v>
+        <v>20220718</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>38.371000000000002</v>
+        <v>22.15</v>
       </c>
       <c r="B384">
-        <v>20210625</v>
+        <v>20220719</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>38.295299999999997</v>
+        <v>22.35</v>
       </c>
       <c r="B385">
-        <v>20210624</v>
+        <v>20220720</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>38.900799999999997</v>
+        <v>22.7</v>
       </c>
       <c r="B386">
-        <v>20210623</v>
+        <v>20220721</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>39.127800000000001</v>
+        <v>22.2</v>
       </c>
       <c r="B387">
-        <v>20210622</v>
+        <v>20220722</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>38.749400000000001</v>
+        <v>21.9</v>
       </c>
       <c r="B388">
-        <v>20210621</v>
+        <v>20220725</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>39.430599999999998</v>
+        <v>21.65</v>
       </c>
       <c r="B389">
-        <v>20210618</v>
+        <v>20220726</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>38.900799999999997</v>
+        <v>21.25</v>
       </c>
       <c r="B390">
-        <v>20210617</v>
+        <v>20220727</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>39.203499999999998</v>
+        <v>21.4</v>
       </c>
       <c r="B391">
-        <v>20210616</v>
+        <v>20220728</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>40.263100000000001</v>
+        <v>21.5</v>
       </c>
       <c r="B392">
-        <v>20210615</v>
+        <v>20220729</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>40.565800000000003</v>
+        <v>22.8</v>
       </c>
       <c r="B393">
-        <v>20210614</v>
+        <v>20220801</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>40.187399999999997</v>
+        <v>22.9</v>
       </c>
       <c r="B394">
-        <v>20210611</v>
+        <v>20220802</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>39.052199999999999</v>
+        <v>23.75</v>
       </c>
       <c r="B395">
-        <v>20210610</v>
+        <v>20220803</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>38.068300000000001</v>
+        <v>23.65</v>
       </c>
       <c r="B396">
-        <v>20210609</v>
+        <v>20220804</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>37.841200000000001</v>
+        <v>23.3</v>
       </c>
       <c r="B397">
-        <v>20210608</v>
+        <v>20220805</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>39.884700000000002</v>
+        <v>23.6</v>
       </c>
       <c r="B398">
-        <v>20210607</v>
+        <v>20220808</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>41.246899999999997</v>
+        <v>24.1</v>
       </c>
       <c r="B399">
-        <v>20210604</v>
+        <v>20220809</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>41.095599999999997</v>
+        <v>23.8</v>
       </c>
       <c r="B400">
-        <v>20210603</v>
+        <v>20220810</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>40.868499999999997</v>
+        <v>23.4</v>
       </c>
       <c r="B401">
-        <v>20210602</v>
+        <v>20220811</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>42.003799999999998</v>
+        <v>23.95</v>
       </c>
       <c r="B402">
-        <v>20210601</v>
+        <v>20220812</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>39.884700000000002</v>
+        <v>24</v>
       </c>
       <c r="B403">
-        <v>20210531</v>
+        <v>20220815</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>37.3367</v>
+        <v>24.55</v>
       </c>
       <c r="B404">
-        <v>20210528</v>
+        <v>20220816</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>37.169800000000002</v>
+        <v>24.3</v>
       </c>
       <c r="B405">
-        <v>20210527</v>
+        <v>20220817</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>37.726199999999999</v>
+        <v>24.15</v>
       </c>
       <c r="B406">
-        <v>20210526</v>
+        <v>20220818</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>37.503599999999999</v>
+        <v>23.75</v>
       </c>
       <c r="B407">
-        <v>20210525</v>
+        <v>20220819</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>36.390799999999999</v>
+        <v>23.35</v>
       </c>
       <c r="B408">
-        <v>20210524</v>
+        <v>20220822</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>36.502000000000002</v>
+        <v>23.65</v>
       </c>
       <c r="B409">
-        <v>20210521</v>
+        <v>20220823</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>37.058500000000002</v>
+        <v>23.5</v>
       </c>
       <c r="B410">
-        <v>20210520</v>
+        <v>20220824</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>36.780299999999997</v>
+        <v>23.85</v>
       </c>
       <c r="B411">
-        <v>20210519</v>
+        <v>20220825</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>35.277900000000002</v>
+        <v>23.5</v>
       </c>
       <c r="B412">
-        <v>20210518</v>
+        <v>20220826</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>34.443199999999997</v>
+        <v>23</v>
       </c>
       <c r="B413">
-        <v>20210517</v>
+        <v>20220829</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>34.164999999999999</v>
+        <v>23.05</v>
       </c>
       <c r="B414">
-        <v>20210514</v>
+        <v>20220830</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>34.220700000000001</v>
+        <v>23</v>
       </c>
       <c r="B415">
-        <v>20210513</v>
+        <v>20220831</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>34.888399999999997</v>
+        <v>23.9</v>
       </c>
       <c r="B416">
-        <v>20210512</v>
+        <v>20220905</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>34.498899999999999</v>
+        <v>23.55</v>
       </c>
       <c r="B417">
-        <v>20210511</v>
+        <v>20220906</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>35.055300000000003</v>
+        <v>23</v>
       </c>
       <c r="B418">
-        <v>20210510</v>
+        <v>20220907</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>33.831200000000003</v>
+        <v>23.1</v>
       </c>
       <c r="B419">
-        <v>20210507</v>
+        <v>20220908</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>33.052100000000003</v>
+        <v>23.8</v>
       </c>
       <c r="B420">
-        <v>20210506</v>
+        <v>20220909</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>32.996499999999997</v>
+        <v>23.8</v>
       </c>
       <c r="B421">
-        <v>20210505</v>
+        <v>20220912</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>33.274700000000003</v>
+        <v>23.7</v>
       </c>
       <c r="B422">
-        <v>20210504</v>
+        <v>20220913</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>32.328800000000001</v>
+        <v>23.7</v>
       </c>
       <c r="B423">
-        <v>20210429</v>
+        <v>20220914</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>31.160299999999999</v>
+        <v>23.6</v>
       </c>
       <c r="B424">
-        <v>20210428</v>
+        <v>20220915</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>31.327200000000001</v>
+        <v>23</v>
       </c>
       <c r="B425">
-        <v>20210427</v>
+        <v>20220916</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>30.659500000000001</v>
+        <v>22.65</v>
       </c>
       <c r="B426">
-        <v>20210426</v>
+        <v>20220919</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>31.3828</v>
+        <v>23</v>
       </c>
       <c r="B427">
-        <v>20210423</v>
+        <v>20220920</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>30.6038</v>
+        <v>22.9</v>
       </c>
       <c r="B428">
-        <v>20210422</v>
+        <v>20220921</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>31.827999999999999</v>
+        <v>23</v>
       </c>
       <c r="B429">
-        <v>20210420</v>
+        <v>20220922</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>32.161900000000003</v>
+        <v>22.7</v>
       </c>
       <c r="B430">
-        <v>20210419</v>
+        <v>20220923</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>30.3813</v>
+        <v>22.4</v>
       </c>
       <c r="B431">
-        <v>20210416</v>
+        <v>20220926</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>30.325600000000001</v>
+        <v>22.4</v>
       </c>
       <c r="B432">
-        <v>20210415</v>
+        <v>20220927</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>29.491</v>
+        <v>21.8</v>
       </c>
       <c r="B433">
-        <v>20210414</v>
+        <v>20220928</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>27.877300000000002</v>
+        <v>21.65</v>
       </c>
       <c r="B434">
-        <v>20210413</v>
+        <v>20220929</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>28.4894</v>
+        <v>21.2</v>
       </c>
       <c r="B435">
-        <v>20210412</v>
+        <v>20220930</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>27.571300000000001</v>
+        <v>19.75</v>
       </c>
       <c r="B436">
-        <v>20210409</v>
+        <v>20221003</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>27.46</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="B437">
-        <v>20210408</v>
+        <v>20221004</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>27.515599999999999</v>
+        <v>19.2</v>
       </c>
       <c r="B438">
-        <v>20210407</v>
+        <v>20221005</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>27.4878</v>
+        <v>18</v>
       </c>
       <c r="B439">
-        <v>20210406</v>
+        <v>20221006</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>27.432200000000002</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="B440">
-        <v>20210405</v>
+        <v>20221007</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>27.293099999999999</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="B441">
-        <v>20210402</v>
+        <v>20221010</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>26.986999999999998</v>
+        <v>17.5</v>
       </c>
       <c r="B442">
-        <v>20210401</v>
+        <v>20221011</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>26.0411</v>
+        <v>18.7</v>
       </c>
       <c r="B443">
-        <v>20210331</v>
+        <v>20221012</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>25.846299999999999</v>
+        <v>19.5</v>
       </c>
       <c r="B444">
-        <v>20210330</v>
+        <v>20221013</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>25.762899999999998</v>
+        <v>19.45</v>
       </c>
       <c r="B445">
-        <v>20210329</v>
+        <v>20221014</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>25.7072</v>
+        <v>19.25</v>
       </c>
       <c r="B446">
-        <v>20210326</v>
+        <v>20221017</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>25.0395</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="B447">
-        <v>20210325</v>
+        <v>20221018</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>25.289899999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B448">
-        <v>20210324</v>
+        <v>20221019</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>25.9298</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B449">
-        <v>20210323</v>
+        <v>20221020</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>26.013300000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="B450">
-        <v>20210322</v>
+        <v>20221021</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>26.235800000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B451">
-        <v>20210319</v>
+        <v>20221024</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>25.9298</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B452">
-        <v>20210318</v>
+        <v>20221025</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>25.762899999999998</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="B453">
-        <v>20210317</v>
+        <v>20221026</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>25.651599999999998</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="B454">
-        <v>20210316</v>
+        <v>20221027</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>25.874199999999998</v>
+        <v>16.8</v>
       </c>
       <c r="B455">
-        <v>20210315</v>
+        <v>20221028</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>25.846299999999999</v>
+        <v>15.65</v>
       </c>
       <c r="B456">
-        <v>20210312</v>
+        <v>20221031</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>25.8185</v>
+        <v>15</v>
       </c>
       <c r="B457">
-        <v>20210311</v>
+        <v>20221101</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>25.3734</v>
+        <v>15.35</v>
       </c>
       <c r="B458">
-        <v>20210310</v>
+        <v>20221102</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>25.512499999999999</v>
+        <v>15.2</v>
       </c>
       <c r="B459">
-        <v>20210309</v>
+        <v>20221103</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>25.762899999999998</v>
+        <v>14.65</v>
       </c>
       <c r="B460">
-        <v>20210308</v>
+        <v>20221104</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>25.5959</v>
+        <v>13.7</v>
       </c>
       <c r="B461">
-        <v>20210305</v>
+        <v>20221107</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>25.540299999999998</v>
+        <v>13.15</v>
       </c>
       <c r="B462">
-        <v>20210304</v>
+        <v>20221108</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>26.0411</v>
+        <v>13</v>
       </c>
       <c r="B463">
-        <v>20210303</v>
+        <v>20221109</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>25.985399999999998</v>
+        <v>12.1</v>
       </c>
       <c r="B464">
-        <v>20210302</v>
+        <v>20221110</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>25.7072</v>
+        <v>12.3</v>
       </c>
       <c r="B465">
-        <v>20210301</v>
+        <v>20221111</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>25.3734</v>
+        <v>12.2</v>
       </c>
       <c r="B466">
-        <v>20210226</v>
+        <v>20221114</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>24.566500000000001</v>
+        <v>12.5</v>
       </c>
       <c r="B467">
-        <v>20210225</v>
+        <v>20221115</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>24.2605</v>
+        <v>13.35</v>
       </c>
       <c r="B468">
-        <v>20210224</v>
+        <v>20221116</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>24.093599999999999</v>
+        <v>14.25</v>
       </c>
       <c r="B469">
-        <v>20210223</v>
+        <v>20221117</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>24.1492</v>
+        <v>15.1</v>
       </c>
       <c r="B470">
-        <v>20210222</v>
+        <v>20221118</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>24.177</v>
+        <v>14.95</v>
       </c>
       <c r="B471">
-        <v>20210219</v>
+        <v>20221121</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>24.3996</v>
+        <v>14.8</v>
       </c>
       <c r="B472">
-        <v>20210218</v>
+        <v>20221122</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>24.177</v>
+        <v>13.8</v>
       </c>
       <c r="B473">
-        <v>20210217</v>
+        <v>20221123</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>23.258900000000001</v>
+        <v>14.35</v>
       </c>
       <c r="B474">
-        <v>20210209</v>
+        <v>20221124</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>22.758099999999999</v>
+        <v>15.3</v>
       </c>
       <c r="B475">
-        <v>20210208</v>
+        <v>20221125</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>23.648399999999999</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="B476">
-        <v>20210205</v>
+        <v>20221128</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>23.258900000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="B477">
-        <v>20210204</v>
+        <v>20221129</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>23.370200000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B478">
-        <v>20210203</v>
+        <v>20221130</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>22.535599999999999</v>
+        <v>18.2</v>
       </c>
       <c r="B479">
-        <v>20210202</v>
+        <v>20221201</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>21.339200000000002</v>
+        <v>19.45</v>
       </c>
       <c r="B480">
-        <v>20210201</v>
+        <v>20221202</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>21.784400000000002</v>
+        <v>20</v>
       </c>
       <c r="B481">
-        <v>20210129</v>
+        <v>20221205</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>20.866299999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="B482">
-        <v>20210128</v>
+        <v>20221206</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>22.424299999999999</v>
+        <v>18.25</v>
       </c>
       <c r="B483">
-        <v>20210127</v>
+        <v>20221207</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>23.537099999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="B484">
-        <v>20210126</v>
+        <v>20221208</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>24.316099999999999</v>
+        <v>19.2</v>
       </c>
       <c r="B485">
-        <v>20210125</v>
+        <v>20221209</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>24.2883</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="B486">
-        <v>20210122</v>
+        <v>20221212</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>24.5944</v>
+        <v>19</v>
       </c>
       <c r="B487">
-        <v>20210121</v>
+        <v>20221213</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>23.203299999999999</v>
+        <v>19.2</v>
       </c>
       <c r="B488">
-        <v>20210120</v>
+        <v>20221214</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>23.147600000000001</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="B489">
-        <v>20210119</v>
+        <v>20221215</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>24.8169</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B490">
-        <v>20210118</v>
+        <v>20221216</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>24.761299999999999</v>
+        <v>20</v>
       </c>
       <c r="B491">
-        <v>20210115</v>
+        <v>20221219</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>24.733499999999999</v>
+        <v>19</v>
       </c>
       <c r="B492">
-        <v>20210114</v>
+        <v>20221220</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>24.872599999999998</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="B493">
-        <v>20210113</v>
+        <v>20221221</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>24.983899999999998</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="B494">
-        <v>20210112</v>
+        <v>20221222</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>23.954499999999999</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="B495">
-        <v>20210111</v>
+        <v>20221223</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>23.787500000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B496">
-        <v>20210108</v>
+        <v>20221226</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>23.8154</v>
+        <v>18.25</v>
       </c>
       <c r="B497">
-        <v>20210107</v>
+        <v>20221227</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>23.8154</v>
+        <v>18.2</v>
       </c>
       <c r="B498">
-        <v>20210106</v>
+        <v>20221228</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>23.565000000000001</v>
+        <v>18</v>
       </c>
       <c r="B499">
-        <v>20210105</v>
+        <v>20221229</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>23.537099999999999</v>
+        <v>18</v>
       </c>
       <c r="B500">
-        <v>20210104</v>
+        <v>20221230</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B500">
+    <sortCondition ref="B2:B500"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>